--- a/figures/SI/Dahn SEI growth/DahnFig7.xlsx
+++ b/figures/SI/Dahn SEI growth/DahnFig7.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/GitHub/battery-parameter-spaces/figures/SI/Dahn SEI growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6CFEE2-D907-4249-B409-09B5891C83E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30 C" sheetId="3" r:id="rId1"/>
     <sheet name="40 C" sheetId="2" r:id="rId2"/>
     <sheet name="50 C" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,8 +29,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>t^0.5</t>
+  </si>
+  <si>
+    <t>QSEI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -78,6 +90,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -345,7 +360,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>6.2410824109999998</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41.551724139999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>7.6014760150000003</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43.931034480000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>8.7552275519999991</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45.689655170000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>9.7884378840000004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>47.344827590000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10.718327179999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>48.689655170000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>11.56211562</v>
+      </c>
+      <c r="B7" s="1">
+        <v>49.931034480000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>12.37146371</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50.965517239999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>13.111931119999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>51.896551719999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>13.80073801</v>
+      </c>
+      <c r="B10" s="1">
+        <v>52.82758621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>14.4895449</v>
+      </c>
+      <c r="B11" s="1">
+        <v>53.655172409999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>15.12669127</v>
+      </c>
+      <c r="B12" s="1">
+        <v>54.379310340000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>15.74661747</v>
+      </c>
+      <c r="B13" s="1">
+        <v>55.103448280000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>16.332103320000002</v>
+      </c>
+      <c r="B14" s="1">
+        <v>55.724137929999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>16.91758918</v>
+      </c>
+      <c r="B15" s="1">
+        <v>56.344827590000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>17.468634689999998</v>
+      </c>
+      <c r="B16" s="1">
+        <v>56.965517239999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>18.002460020000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>57.482758619999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18.536285360000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>19.052890529999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>58.517241380000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19.53505535</v>
+      </c>
+      <c r="B20" s="1">
+        <v>59.034482760000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>7.532595326</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45.793103449999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8.7035670360000008</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47.862068970000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>9.7023370230000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>49.517241380000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10.632226319999999</v>
+      </c>
+      <c r="B5" s="1">
+        <v>51.17241379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11.47601476</v>
+      </c>
+      <c r="B6" s="1">
+        <v>52.413793099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>12.28536285</v>
+      </c>
+      <c r="B7" s="1">
+        <v>53.655172409999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>13.008610089999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>54.793103449999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>13.73185732</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55.82758621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>14.386223859999999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56.758620690000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>15.04059041</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57.689655170000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>15.643296429999999</v>
+      </c>
+      <c r="B12" s="1">
+        <v>58.517241380000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>16.24600246</v>
+      </c>
+      <c r="B13" s="1">
+        <v>59.241379309999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>16.814268139999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60.068965519999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>17.365313650000001</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60.793103449999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>17.899138990000001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>61.517241380000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>18.415744159999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>62.137931029999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18.93234932</v>
+      </c>
+      <c r="B18" s="1">
+        <v>62.655172409999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>19.43173432</v>
+      </c>
+      <c r="B19" s="1">
+        <v>63.379310340000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19.93111931</v>
+      </c>
+      <c r="B20" s="1">
+        <v>64.103448279999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -353,490 +722,162 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>6.2410824109999998</v>
-      </c>
-      <c r="B1" s="1">
-        <v>41.551724139999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>7.6014760150000003</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43.931034480000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>8.7552275519999991</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45.689655170000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>9.7884378840000004</v>
-      </c>
-      <c r="B4" s="1">
-        <v>47.344827590000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>10.718327179999999</v>
-      </c>
-      <c r="B5" s="1">
-        <v>48.689655170000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>11.56211562</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49.931034480000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>12.37146371</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50.965517239999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>13.111931119999999</v>
-      </c>
-      <c r="B8" s="1">
-        <v>51.896551719999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>13.80073801</v>
-      </c>
-      <c r="B9" s="1">
-        <v>52.82758621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>14.4895449</v>
-      </c>
-      <c r="B10" s="1">
-        <v>53.655172409999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>15.12669127</v>
-      </c>
-      <c r="B11" s="1">
-        <v>54.379310340000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>15.74661747</v>
-      </c>
-      <c r="B12" s="1">
-        <v>55.103448280000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>16.332103320000002</v>
-      </c>
-      <c r="B13" s="1">
-        <v>55.724137929999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>16.91758918</v>
-      </c>
-      <c r="B14" s="1">
-        <v>56.344827590000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>17.468634689999998</v>
-      </c>
-      <c r="B15" s="1">
-        <v>56.965517239999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>18.002460020000001</v>
-      </c>
-      <c r="B16" s="1">
-        <v>57.482758619999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>18.536285360000001</v>
-      </c>
-      <c r="B17" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>19.052890529999999</v>
-      </c>
-      <c r="B18" s="1">
-        <v>58.517241380000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>19.53505535</v>
-      </c>
-      <c r="B19" s="1">
-        <v>59.034482760000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>7.532595326</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45.793103449999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>8.7035670360000008</v>
-      </c>
-      <c r="B2" s="1">
-        <v>47.862068970000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>9.7023370230000001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>49.517241380000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>10.632226319999999</v>
-      </c>
-      <c r="B4" s="1">
-        <v>51.17241379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>11.47601476</v>
-      </c>
-      <c r="B5" s="1">
-        <v>52.413793099999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>12.28536285</v>
-      </c>
-      <c r="B6" s="1">
-        <v>53.655172409999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>13.008610089999999</v>
-      </c>
-      <c r="B7" s="1">
-        <v>54.793103449999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>13.73185732</v>
-      </c>
-      <c r="B8" s="1">
-        <v>55.82758621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>14.386223859999999</v>
-      </c>
-      <c r="B9" s="1">
-        <v>56.758620690000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>15.04059041</v>
-      </c>
-      <c r="B10" s="1">
-        <v>57.689655170000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>15.643296429999999</v>
-      </c>
-      <c r="B11" s="1">
-        <v>58.517241380000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>16.24600246</v>
-      </c>
-      <c r="B12" s="1">
-        <v>59.241379309999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>16.814268139999999</v>
-      </c>
-      <c r="B13" s="1">
-        <v>60.068965519999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>17.365313650000001</v>
-      </c>
-      <c r="B14" s="1">
-        <v>60.793103449999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>17.899138990000001</v>
-      </c>
-      <c r="B15" s="1">
-        <v>61.517241380000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>18.415744159999999</v>
-      </c>
-      <c r="B16" s="1">
-        <v>62.137931029999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>18.93234932</v>
-      </c>
-      <c r="B17" s="1">
-        <v>62.655172409999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>19.43173432</v>
-      </c>
-      <c r="B18" s="1">
-        <v>63.379310340000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>19.93111931</v>
-      </c>
-      <c r="B19" s="1">
-        <v>64.103448279999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>6.3099630996310196</v>
-      </c>
-      <c r="B1">
-        <v>48.586206896551602</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.6875768757687801</v>
+        <v>6.3099630996310196</v>
       </c>
       <c r="B2">
-        <v>51.689655172413701</v>
+        <v>48.586206896551602</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8.8585485854858703</v>
+        <v>7.6875768757687801</v>
       </c>
       <c r="B3">
-        <v>54.172413793103402</v>
+        <v>51.689655172413701</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9.9089790897909094</v>
+        <v>8.8585485854858703</v>
       </c>
       <c r="B4">
-        <v>56.034482758620598</v>
+        <v>54.172413793103402</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10.838868388683901</v>
+        <v>9.9089790897909094</v>
       </c>
       <c r="B5">
-        <v>57.586206896551701</v>
+        <v>56.034482758620598</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>11.6998769987699</v>
+        <v>10.838868388683901</v>
       </c>
       <c r="B6">
-        <v>59.241379310344797</v>
+        <v>57.586206896551701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>12.509225092250899</v>
+        <v>11.6998769987699</v>
       </c>
       <c r="B7">
-        <v>60.482758620689602</v>
+        <v>59.241379310344797</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>13.2669126691267</v>
+        <v>12.509225092250899</v>
       </c>
       <c r="B8">
-        <v>61.724137931034498</v>
+        <v>60.482758620689602</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>13.990159901599</v>
+        <v>13.2669126691267</v>
       </c>
       <c r="B9">
-        <v>62.965517241379303</v>
+        <v>61.724137931034498</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>14.6617466174661</v>
+        <v>13.990159901599</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62.965517241379303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15.3161131611316</v>
+        <v>14.6617466174661</v>
       </c>
       <c r="B11">
-        <v>65.034482758620697</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>15.9360393603936</v>
+        <v>15.3161131611316</v>
       </c>
       <c r="B12">
-        <v>66.068965517241395</v>
+        <v>65.034482758620697</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16.538745387453801</v>
+        <v>15.9360393603936</v>
       </c>
       <c r="B13">
-        <v>66.896551724138007</v>
+        <v>66.068965517241395</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>17.107011070110602</v>
+        <v>16.538745387453801</v>
       </c>
       <c r="B14">
-        <v>67.931034482758704</v>
+        <v>66.896551724138007</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17.675276752767498</v>
+        <v>17.107011070110602</v>
       </c>
       <c r="B15">
-        <v>68.965517241379402</v>
+        <v>67.931034482758704</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>18.226322263222599</v>
+        <v>17.675276752767498</v>
       </c>
       <c r="B16">
-        <v>69.7931034482759</v>
+        <v>68.965517241379402</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>18.760147601476</v>
+        <v>18.226322263222599</v>
       </c>
       <c r="B17">
-        <v>70.724137931034505</v>
+        <v>69.7931034482759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>19.259532595325901</v>
+        <v>18.760147601476</v>
       </c>
       <c r="B18">
-        <v>71.655172413793196</v>
+        <v>70.724137931034505</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>19.259532595325901</v>
+      </c>
+      <c r="B19">
+        <v>71.655172413793196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19.758917589175802</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>72.482758620689694</v>
       </c>
     </row>
